--- a/Data/EC/NIT-8600029644.xlsx
+++ b/Data/EC/NIT-8600029644.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41E5B5D-E14F-4829-8781-D9AAAF679357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1FC883-9689-42AA-A322-5DA76F2EB51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F9635A6B-2C53-4B1B-A07C-6DF2F9666AEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{983015E3-4B17-480F-BB99-9DA0FE65340B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="95">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,172 +65,214 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047477010</t>
+  </si>
+  <si>
+    <t>JENNYFER LILIANA LIZCANO SANCHEZ</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1052970607</t>
+  </si>
+  <si>
+    <t>ROBIN ARTURO CARRANZA AGUILERA</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>1128062123</t>
   </si>
   <si>
     <t>ENRIQUE DE JESUS BOSSA LLAMAS</t>
   </si>
   <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1047477010</t>
-  </si>
-  <si>
-    <t>JENNYFER LILIANA LIZCANO SANCHEZ</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
+    <t>1002487480</t>
+  </si>
+  <si>
+    <t>LEDYS CATHERINE TURIZO REYES</t>
+  </si>
+  <si>
+    <t>1047485151</t>
+  </si>
+  <si>
+    <t>ASTRID CONSUELO SARRIA BARRIOS</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>22739720</t>
+  </si>
+  <si>
+    <t>GIGLIOLA GRACE MIRANDA MERCADO</t>
+  </si>
+  <si>
+    <t>9023751</t>
+  </si>
+  <si>
+    <t>OSVALDO MANUEL DE LA PUENTE ATILANO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
   </si>
   <si>
     <t>1140876541</t>
@@ -239,52 +281,13 @@
     <t>DANNA CAROLINA CARRANZA ARCINIEGAS</t>
   </si>
   <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
     <t>2310</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>9023751</t>
-  </si>
-  <si>
-    <t>OSVALDO MANUEL DE LA PUENTE ATILANO</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>22739720</t>
-  </si>
-  <si>
-    <t>GIGLIOLA GRACE MIRANDA MERCADO</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1047485151</t>
-  </si>
-  <si>
-    <t>ASTRID CONSUELO SARRIA BARRIOS</t>
-  </si>
-  <si>
-    <t>1052970607</t>
-  </si>
-  <si>
-    <t>ROBIN ARTURO CARRANZA AGUILERA</t>
-  </si>
-  <si>
-    <t>1002487480</t>
-  </si>
-  <si>
-    <t>LEDYS CATHERINE TURIZO REYES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -698,7 +701,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBF364B-3BBD-AC01-6F49-A4EE7F6F95BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D369AA92-2E12-5AD3-3087-DCC9DB6F8AB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,8 +1052,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39404593-4D73-4241-A074-44568B3FDCAA}">
-  <dimension ref="B2:J90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50787B23-BB69-4B69-A7FC-6C889F0882BC}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1074,7 +1077,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1119,7 +1122,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1151,12 +1154,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4368022</v>
+        <v>4496790</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1167,17 +1170,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="5">
         <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1204,13 +1207,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1227,10 +1230,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G16" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1250,10 +1253,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G17" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1273,10 +1276,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G18" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1296,10 +1299,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G19" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1319,10 +1322,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G20" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1342,10 +1345,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G21" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1365,10 +1368,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1388,10 +1391,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G23" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1411,10 +1414,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G24" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1434,10 +1437,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G25" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1457,10 +1460,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G26" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1480,10 +1483,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G27" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1503,10 +1506,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G28" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1526,10 +1529,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G29" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1549,10 +1552,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G30" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1572,10 +1575,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G31" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1595,10 +1598,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G32" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1618,10 +1621,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G33" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1641,10 +1644,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>48000</v>
+        <v>54480</v>
       </c>
       <c r="G34" s="18">
-        <v>1200000</v>
+        <v>2491082</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1655,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>48000</v>
+        <v>43169</v>
       </c>
       <c r="G35" s="18">
-        <v>1200000</v>
+        <v>2490537</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1678,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
         <v>48000</v>
@@ -1701,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>48000</v>
@@ -1724,13 +1727,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>48000</v>
@@ -1747,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
         <v>48000</v>
@@ -1770,13 +1773,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>48000</v>
@@ -1793,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
         <v>48000</v>
@@ -1816,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
         <v>48000</v>
@@ -1839,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
         <v>48000</v>
@@ -1862,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F44" s="18">
         <v>48000</v>
@@ -1885,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
         <v>48000</v>
@@ -1908,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
         <v>48000</v>
@@ -1931,13 +1934,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
         <v>48000</v>
@@ -1954,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
         <v>48000</v>
@@ -1977,13 +1980,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F49" s="18">
         <v>48000</v>
@@ -2000,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F50" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G50" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2023,19 +2026,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G51" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2046,13 +2049,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
         <v>48000</v>
@@ -2069,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G53" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2092,13 +2095,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F54" s="18">
         <v>48000</v>
@@ -2115,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F55" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G55" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2138,13 +2141,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F56" s="18">
         <v>48000</v>
@@ -2161,13 +2164,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
         <v>48000</v>
@@ -2184,19 +2187,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F58" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G58" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2207,13 +2210,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F59" s="18">
         <v>48000</v>
@@ -2230,19 +2233,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G60" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2253,10 +2256,10 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>52</v>
@@ -2276,19 +2279,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G62" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2299,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63" s="18">
         <v>48000</v>
@@ -2322,19 +2325,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F64" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G64" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2345,19 +2348,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F65" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G65" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2368,19 +2371,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F66" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G66" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2391,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F67" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G67" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2414,19 +2417,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G68" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2437,19 +2440,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F69" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G69" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2460,19 +2463,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F70" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G70" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2483,19 +2486,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F71" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G71" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2506,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F72" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G72" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2529,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F73" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G73" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2552,19 +2555,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F74" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G74" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2575,19 +2578,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F75" s="18">
-        <v>54480</v>
+        <v>48000</v>
       </c>
       <c r="G75" s="18">
-        <v>2491082</v>
+        <v>1200000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2598,19 +2601,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F76" s="18">
-        <v>172000</v>
+        <v>48000</v>
       </c>
       <c r="G76" s="18">
-        <v>4300000</v>
+        <v>1200000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2621,19 +2624,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F77" s="18">
-        <v>172000</v>
+        <v>104521</v>
       </c>
       <c r="G77" s="18">
-        <v>4300000</v>
+        <v>2613043</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2644,19 +2647,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F78" s="18">
-        <v>172000</v>
+        <v>128768</v>
       </c>
       <c r="G78" s="18">
-        <v>4300000</v>
+        <v>3219200</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2673,13 +2676,13 @@
         <v>71</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F79" s="18">
-        <v>247117</v>
+        <v>128768</v>
       </c>
       <c r="G79" s="18">
-        <v>6177917</v>
+        <v>3219200</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2690,19 +2693,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F80" s="18">
-        <v>247117</v>
+        <v>78210</v>
       </c>
       <c r="G80" s="18">
-        <v>6177917</v>
+        <v>4512130</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2713,19 +2716,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="18">
-        <v>78210</v>
+        <v>247117</v>
       </c>
       <c r="G81" s="18">
-        <v>4512130</v>
+        <v>6177917</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2736,19 +2739,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D82" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="F82" s="18">
-        <v>128768</v>
+        <v>247117</v>
       </c>
       <c r="G82" s="18">
-        <v>3219200</v>
+        <v>6177917</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2765,55 +2768,67 @@
         <v>80</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
-        <v>43169</v>
+        <v>172000</v>
       </c>
       <c r="G83" s="18">
-        <v>2490537</v>
+        <v>4300000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" s="23" t="s">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E84" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F84" s="24">
-        <v>104521</v>
-      </c>
-      <c r="G84" s="24">
-        <v>2613043</v>
-      </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="H89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="F84" s="18">
+        <v>172000</v>
+      </c>
+      <c r="G84" s="18">
+        <v>4300000</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="24">
+        <v>172000</v>
+      </c>
+      <c r="G85" s="24">
+        <v>4300000</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C90" s="32"/>
       <c r="H90" s="1" t="s">
@@ -2822,12 +2837,23 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="H91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B91:C91"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="H91:J91"/>
     <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H89:J89"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
